--- a/risultati-google-form.xlsx
+++ b/risultati-google-form.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\ReportIUM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CD26ED-B872-4012-B1DB-F9EB9A927A29}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Risposte del modulo 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Risposte del modulo 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -133,68 +142,79 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="h&quot;.&quot;mm"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -384,26 +404,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="27" width="21.57"/>
+    <col min="1" max="27" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,9 +491,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>43839.40424393519</v>
+        <v>43839.404243935191</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>21</v>
@@ -479,7 +502,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="4">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>23</v>
@@ -491,48 +514,48 @@
         <v>25</v>
       </c>
       <c r="H2" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J2" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P2" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Q2" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R2" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S2" s="5">
-        <v>0.4013888888875954</v>
+        <v>0.40138888888888885</v>
       </c>
       <c r="T2" s="5">
-        <v>0.40347222222044365</v>
+        <v>0.40347222222222223</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>43839.41361216435</v>
+        <v>43839.413612164353</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>26</v>
@@ -541,7 +564,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="4">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>28</v>
@@ -553,48 +576,48 @@
         <v>25</v>
       </c>
       <c r="H3" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I3" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J3" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K3" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M3" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O3" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Q3" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="S3" s="5">
-        <v>0.4111111111124046</v>
+        <v>5</v>
+      </c>
+      <c r="S3" s="6">
+        <v>0.41111111111240461</v>
       </c>
       <c r="T3" s="5">
-        <v>0.4131944444452529</v>
+        <v>0.41319444444444442</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>43839.41998273148</v>
+        <v>43839.419982731481</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>29</v>
@@ -603,7 +626,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="4">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>31</v>
@@ -615,46 +638,46 @@
         <v>25</v>
       </c>
       <c r="H4" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J4" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K4" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L4" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M4" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O4" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Q4" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R4" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S4" s="5">
         <v>0.4180555555576575</v>
       </c>
       <c r="T4" s="5">
-        <v>0.4194444444437977</v>
+        <v>0.41944444444444445</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43839.43943140046</v>
       </c>
@@ -665,7 +688,7 @@
         <v>33</v>
       </c>
       <c r="D5" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>34</v>
@@ -677,46 +700,46 @@
         <v>25</v>
       </c>
       <c r="H5" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J5" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K5" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L5" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M5" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N5" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O5" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P5" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R5" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S5" s="5">
         <v>0.4375</v>
       </c>
       <c r="T5" s="5">
-        <v>0.43888888889341615</v>
+        <v>0.43888888888888888</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43839.45574528935</v>
       </c>
@@ -727,7 +750,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>34</v>
@@ -739,48 +762,48 @@
         <v>25</v>
       </c>
       <c r="H6" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I6" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J6" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K6" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L6" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M6" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N6" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O6" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P6" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q6" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R6" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="S6" s="5">
-        <v>0.45416666666278616</v>
+        <v>0.45416666666666666</v>
       </c>
       <c r="T6" s="5">
-        <v>0.45486111110949423</v>
+        <v>0.4548611111111111</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>43839.47349533565</v>
+        <v>43839.473495335653</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>37</v>
@@ -789,7 +812,7 @@
         <v>38</v>
       </c>
       <c r="D7" s="4">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>34</v>
@@ -801,46 +824,47 @@
         <v>25</v>
       </c>
       <c r="H7" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K7" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L7" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M7" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O7" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S7" s="5">
-        <v>0.47222222221898846</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="T7" s="5">
-        <v>0.47291666666569654</v>
+        <v>0.47291666666666665</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>